--- a/前端代码审查规范.xlsx
+++ b/前端代码审查规范.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -107,37 +110,196 @@
   <si>
     <t>郝建阳</t>
   </si>
+  <si>
+    <t xml:space="preserve">是
+</t>
+  </si>
+  <si>
+    <t>郑柳燕</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,11 +309,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,62 +522,339 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -355,7 +980,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -364,7 +989,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -373,7 +998,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -447,13 +1072,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -473,20 +1097,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -503,8 +1126,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -529,8 +1151,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,8 +1176,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -581,8 +1201,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -607,8 +1226,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -633,8 +1251,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -659,8 +1276,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -685,8 +1301,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -711,8 +1326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -725,9 +1339,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -742,13 +1362,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -768,8 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,8 +1412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,8 +1437,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,8 +1462,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,8 +1487,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,8 +1512,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -924,8 +1537,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -950,8 +1562,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -976,8 +1587,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1002,8 +1612,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1016,9 +1625,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1029,8 +1644,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1050,20 +1663,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1080,8 +1692,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1106,8 +1717,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1132,8 +1742,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1158,8 +1767,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1184,8 +1792,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1210,8 +1817,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1236,8 +1842,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1262,8 +1867,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,8 +1892,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,9 +1905,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1313,42 +1922,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="17" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="17" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.3438" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.2266" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.675" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.175" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.3416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.175" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.175" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1719" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.675" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.175" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="13" max="256" width="10.85" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="32" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
@@ -1356,308 +1967,330 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" ht="60" customHeight="1">
+    <row r="2" ht="60" customHeight="1" spans="1:12">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="96" customHeight="1">
+    <row r="3" ht="96" customHeight="1" spans="1:12">
       <c r="A3" s="4">
         <v>43048</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s" s="5">
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="5">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s" s="5">
+      <c r="K3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s" s="5">
+      <c r="L3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="138.05" customHeight="1">
+    <row r="4" ht="138.05" customHeight="1" spans="1:12">
       <c r="A4" s="4">
         <v>43049</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="6">
+      <c r="F4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s" s="5">
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s" s="5">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s" s="5">
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" t="s" s="6">
+      <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s" s="5">
+      <c r="K4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s" s="5">
+      <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1">
+    <row r="5" ht="145" customHeight="1" spans="1:12">
       <c r="A5" s="4">
         <v>43050</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6" ht="26" customHeight="1" spans="1:12">
       <c r="A6" s="4">
         <v>43051</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7" ht="26" customHeight="1" spans="1:12">
       <c r="A7" s="4">
         <v>43052</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8" ht="26" customHeight="1" spans="1:12">
       <c r="A8" s="4">
         <v>43053</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9" ht="26" customHeight="1" spans="1:12">
       <c r="A9" s="4">
         <v>43054</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10" ht="26" customHeight="1" spans="1:12">
       <c r="A10" s="4">
         <v>43055</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11" ht="26" customHeight="1" spans="1:12">
       <c r="A11" s="4">
         <v>43056</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12" ht="26" customHeight="1" spans="1:12">
       <c r="A12" s="4">
         <v>43057</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13" ht="26" customHeight="1" spans="1:12">
       <c r="A13" s="4">
         <v>43058</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14" ht="26" customHeight="1" spans="1:12">
       <c r="A14" s="4">
         <v>43059</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15" ht="26" customHeight="1" spans="1:12">
       <c r="A15" s="4">
         <v>43060</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端代码审查规范.xlsx
+++ b/前端代码审查规范.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichenk\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -121,14 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -139,167 +138,24 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,194 +168,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -522,253 +192,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,62 +220,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1079,7 +469,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1369,7 +759,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1645,7 +1035,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1918,39 +1308,40 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.675" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.175" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.3416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.35" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.175" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.175" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.675" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.175" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="49" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" customWidth="1"/>
-    <col min="13" max="256" width="10.85" style="1" customWidth="1"/>
+    <col min="13" max="256" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1959,22 +1350,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="10"/>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:12">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +1397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="96" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43048</v>
       </c>
@@ -2044,7 +1435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="138.05" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43049</v>
       </c>
@@ -2082,9 +1473,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="145" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>43050</v>
+        <v>43052</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -2120,9 +1511,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>43051</v>
+        <v>43053</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
@@ -2138,9 +1529,9 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" ht="26" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>43052</v>
+        <v>43054</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
@@ -2154,9 +1545,9 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" ht="26" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>43053</v>
+        <v>43055</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
@@ -2170,9 +1561,9 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" ht="26" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>43054</v>
+        <v>43056</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
@@ -2186,9 +1577,9 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" ht="26" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>43055</v>
+        <v>43059</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
@@ -2202,9 +1593,9 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" ht="26" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>43056</v>
+        <v>43060</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
@@ -2218,9 +1609,9 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" ht="26" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>43057</v>
+        <v>43061</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
@@ -2234,9 +1625,9 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" ht="26" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>43058</v>
+        <v>43062</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -2250,9 +1641,9 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" ht="26" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>43059</v>
+        <v>43063</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
@@ -2266,9 +1657,9 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" ht="26" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>43060</v>
+        <v>43066</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
@@ -2289,8 +1680,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端代码审查规范.xlsx
+++ b/前端代码审查规范.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichenk\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -126,8 +121,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -138,24 +139,167 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +312,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -192,11 +522,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -220,24 +792,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1308,19 +1918,19 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
@@ -1337,11 +1947,11 @@
     <col min="13" max="256" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="32.1" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1350,22 +1960,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="9" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="10"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+    <row r="2" ht="60" customHeight="1" spans="1:12">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +2007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="96" customHeight="1" spans="1:12">
       <c r="A3" s="4">
         <v>43048</v>
       </c>
@@ -1435,7 +2045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="138" customHeight="1" spans="1:12">
       <c r="A4" s="4">
         <v>43049</v>
       </c>
@@ -1473,7 +2083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="144.95" customHeight="1" spans="1:12">
       <c r="A5" s="4">
         <v>43052</v>
       </c>
@@ -1511,25 +2121,45 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="26.1" customHeight="1" spans="1:12">
       <c r="A6" s="4">
         <v>43053</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="26.1" customHeight="1" spans="1:12">
       <c r="A7" s="4">
         <v>43054</v>
       </c>
@@ -1545,7 +2175,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="26.1" customHeight="1" spans="1:12">
       <c r="A8" s="4">
         <v>43055</v>
       </c>
@@ -1561,7 +2191,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="26.1" customHeight="1" spans="1:12">
       <c r="A9" s="4">
         <v>43056</v>
       </c>
@@ -1577,7 +2207,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="26.1" customHeight="1" spans="1:12">
       <c r="A10" s="4">
         <v>43059</v>
       </c>
@@ -1593,7 +2223,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="26.1" customHeight="1" spans="1:12">
       <c r="A11" s="4">
         <v>43060</v>
       </c>
@@ -1609,7 +2239,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="26.1" customHeight="1" spans="1:12">
       <c r="A12" s="4">
         <v>43061</v>
       </c>
@@ -1625,7 +2255,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="26.1" customHeight="1" spans="1:12">
       <c r="A13" s="4">
         <v>43062</v>
       </c>
@@ -1641,7 +2271,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="26.1" customHeight="1" spans="1:12">
       <c r="A14" s="4">
         <v>43063</v>
       </c>
@@ -1657,7 +2287,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="26.1" customHeight="1" spans="1:12">
       <c r="A15" s="4">
         <v>43066</v>
       </c>
@@ -1680,9 +2310,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端代码审查规范.xlsx
+++ b/前端代码审查规范.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichenk\Documents\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -117,18 +122,18 @@
   <si>
     <t>郑柳燕</t>
   </si>
+  <si>
+    <t>穆红敏</t>
+  </si>
+  <si>
+    <t>1.edit-newMaterielChange.component.ts  隗合飞</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -139,167 +144,24 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,194 +174,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -522,253 +198,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,62 +226,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1918,19 +1317,19 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="C1" sqref="L3 C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="1" customWidth="1"/>
@@ -1947,11 +1346,11 @@
     <col min="13" max="256" width="10.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.1" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1960,22 +1359,22 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="2" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="11"/>
     </row>
-    <row r="2" ht="60" customHeight="1" spans="1:12">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="96" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>43048</v>
       </c>
@@ -2045,7 +1444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" ht="138" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>43049</v>
       </c>
@@ -2083,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="144.95" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>43052</v>
       </c>
@@ -2121,7 +1520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="26.1" customHeight="1" spans="1:12">
+    <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>43053</v>
       </c>
@@ -2159,23 +1558,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" ht="26.1" customHeight="1" spans="1:12">
+    <row r="7" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>43054</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" ht="26.1" customHeight="1" spans="1:12">
+    <row r="8" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>43055</v>
       </c>
@@ -2191,7 +1612,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" ht="26.1" customHeight="1" spans="1:12">
+    <row r="9" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>43056</v>
       </c>
@@ -2207,7 +1628,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" ht="26.1" customHeight="1" spans="1:12">
+    <row r="10" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>43059</v>
       </c>
@@ -2223,7 +1644,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" ht="26.1" customHeight="1" spans="1:12">
+    <row r="11" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>43060</v>
       </c>
@@ -2239,7 +1660,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" ht="26.1" customHeight="1" spans="1:12">
+    <row r="12" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>43061</v>
       </c>
@@ -2255,7 +1676,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" ht="26.1" customHeight="1" spans="1:12">
+    <row r="13" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>43062</v>
       </c>
@@ -2271,7 +1692,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" ht="26.1" customHeight="1" spans="1:12">
+    <row r="14" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>43063</v>
       </c>
@@ -2287,7 +1708,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" ht="26.1" customHeight="1" spans="1:12">
+    <row r="15" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>43066</v>
       </c>
@@ -2310,8 +1731,9 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/前端代码审查规范.xlsx
+++ b/前端代码审查规范.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichenk\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lichenk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -127,6 +127,34 @@
   </si>
   <si>
     <t>1.edit-newMaterielChange.component.ts  隗合飞</t>
+  </si>
+  <si>
+    <t>李晨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.edit-materiel-approvalMaterielChange.component.ts隗合飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sc-creat.component.ts 郝建阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.contractApply-submit-list.component.ts 郑柳燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1325,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="C1" sqref="L3 C1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1337,7 +1365,7 @@
     <col min="4" max="4" width="65.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="49" style="1" customWidth="1"/>
@@ -1596,21 +1624,43 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>43055</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
